--- a/RxNorm/Opioid/RandomAntidepressantList.xlsx
+++ b/RxNorm/Opioid/RandomAntidepressantList.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\opiod_list\Atomatic_Code_Sets\RxNorm\Opioid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8388C6-640A-42A4-A3FA-5C779820F127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29445" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="159">
   <si>
     <t>rxcui</t>
   </si>
@@ -473,13 +479,31 @@
   </si>
   <si>
     <t>vortioxetine</t>
+  </si>
+  <si>
+    <t>St. John's wort extract</t>
+  </si>
+  <si>
+    <t>1158194</t>
+  </si>
+  <si>
+    <t>sertraline Oral Product</t>
+  </si>
+  <si>
+    <t>sertraline</t>
+  </si>
+  <si>
+    <t>1158195</t>
+  </si>
+  <si>
+    <t>sertraline Pill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,24 +555,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -586,7 +619,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -620,6 +653,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -654,9 +688,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,14 +864,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1293409</v>
       </c>
@@ -864,7 +901,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1293411</v>
       </c>
@@ -878,7 +915,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17698</v>
       </c>
@@ -892,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1152274</v>
       </c>
@@ -906,7 +943,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1012360</v>
       </c>
@@ -920,7 +957,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1152590</v>
       </c>
@@ -934,7 +971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>197366</v>
       </c>
@@ -948,7 +985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>47111</v>
       </c>
@@ -962,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2121780</v>
       </c>
@@ -976,7 +1013,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2121778</v>
       </c>
@@ -990,7 +1027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>993683</v>
       </c>
@@ -1004,7 +1041,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>993517</v>
       </c>
@@ -1018,7 +1055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>324004</v>
       </c>
@@ -1032,7 +1069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>324004</v>
       </c>
@@ -1046,7 +1083,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>645291</v>
       </c>
@@ -1060,7 +1097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>283672</v>
       </c>
@@ -1074,7 +1111,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>857301</v>
       </c>
@@ -1088,7 +1125,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>857304</v>
       </c>
@@ -1102,7 +1139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1099315</v>
       </c>
@@ -1116,7 +1153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1099287</v>
       </c>
@@ -1130,7 +1167,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1435482</v>
       </c>
@@ -1144,7 +1181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>683693</v>
       </c>
@@ -1158,7 +1195,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>236807</v>
       </c>
@@ -1172,7 +1209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3332</v>
       </c>
@@ -1186,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>331849</v>
       </c>
@@ -1200,7 +1237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>199462</v>
       </c>
@@ -1214,7 +1251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>362334</v>
       </c>
@@ -1228,7 +1265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>966788</v>
       </c>
@@ -1242,7 +1279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2200182</v>
       </c>
@@ -1256,7 +1293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1652068</v>
       </c>
@@ -1270,7 +1307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>353398</v>
       </c>
@@ -1284,7 +1321,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>353108</v>
       </c>
@@ -1298,7 +1335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2119385</v>
       </c>
@@ -1312,7 +1349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2119366</v>
       </c>
@@ -1326,7 +1363,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>647323</v>
       </c>
@@ -1340,7 +1377,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>58827</v>
       </c>
@@ -1354,7 +1391,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>903879</v>
       </c>
@@ -1368,7 +1405,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>903891</v>
       </c>
@@ -1382,7 +1419,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>835567</v>
       </c>
@@ -1396,7 +1433,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>835564</v>
       </c>
@@ -1410,7 +1447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5979</v>
       </c>
@@ -1424,7 +1461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5981</v>
       </c>
@@ -1438,7 +1475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>370712</v>
       </c>
@@ -1452,7 +1489,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>316104</v>
       </c>
@@ -1466,7 +1503,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1433227</v>
       </c>
@@ -1480,7 +1517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1433222</v>
       </c>
@@ -1494,7 +1531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1164711</v>
       </c>
@@ -1508,7 +1545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>372625</v>
       </c>
@@ -1522,7 +1559,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>372717</v>
       </c>
@@ -1536,7 +1573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1298802</v>
       </c>
@@ -1550,7 +1587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>236781</v>
       </c>
@@ -1564,7 +1601,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>236781</v>
       </c>
@@ -1578,7 +1615,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1007557</v>
       </c>
@@ -1592,7 +1629,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1007557</v>
       </c>
@@ -1606,7 +1643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>199484</v>
       </c>
@@ -1620,7 +1657,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>332226</v>
       </c>
@@ -1634,7 +1671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1177183</v>
       </c>
@@ -1648,7 +1685,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>833144</v>
       </c>
@@ -1662,7 +1699,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>30031</v>
       </c>
@@ -1676,7 +1713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>236400</v>
       </c>
@@ -1690,7 +1727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>211322</v>
       </c>
@@ -1704,7 +1741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>343213</v>
       </c>
@@ -1718,7 +1755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>199487</v>
       </c>
@@ -1732,7 +1769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>332243</v>
       </c>
@@ -1746,7 +1783,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1098677</v>
       </c>
@@ -1760,7 +1797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1098666</v>
       </c>
@@ -1774,7 +1811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7394</v>
       </c>
@@ -1788,7 +1825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7500</v>
       </c>
@@ -1802,7 +1839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>262302</v>
       </c>
@@ -1816,7 +1853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>209391</v>
       </c>
@@ -1830,7 +1867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>814600</v>
       </c>
@@ -1844,7 +1881,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7674</v>
       </c>
@@ -1858,7 +1895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7674</v>
       </c>
@@ -1872,7 +1909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>235830</v>
       </c>
@@ -1886,7 +1923,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1430127</v>
       </c>
@@ -1900,7 +1937,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>312347</v>
       </c>
@@ -1914,7 +1951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>312347</v>
       </c>
@@ -1928,7 +1965,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8886</v>
       </c>
@@ -1942,7 +1979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>905172</v>
       </c>
@@ -1956,7 +1993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>35242</v>
       </c>
@@ -1970,7 +2007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>153515</v>
       </c>
@@ -1984,283 +2021,325 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>1157911</v>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>1162091</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
         <v>98</v>
       </c>
       <c r="D84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>258326</v>
+      </c>
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1157911</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1162091</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>1162091</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C88" t="s">
         <v>98</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D88" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>38382</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>82</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C89" t="s">
         <v>100</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D89" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>1182387</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>83</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>109</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D90" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>91119</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C91" t="s">
         <v>105</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>856382</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>85</v>
-      </c>
-      <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>898705</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>313496</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>313496</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
       </c>
       <c r="C92" t="s">
         <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>800234</v>
+        <v>898705</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>800563</v>
+        <v>313496</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>102</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>801848</v>
+        <v>313496</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>328798</v>
+        <v>800234</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
       </c>
       <c r="D96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>800563</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>801848</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>328798</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>1086786</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>92</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C100" t="s">
         <v>104</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>1086790</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
         <v>93</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C101" t="s">
         <v>110</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>2536758</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B102" t="s">
         <v>94</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C102" t="s">
         <v>104</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>2536552</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>95</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C103" t="s">
         <v>109</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D103" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>1439839</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>96</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C104" t="s">
         <v>103</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D104" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>1439811</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
         <v>97</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C105" t="s">
         <v>103</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D105" t="s">
         <v>152</v>
       </c>
     </row>
